--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,6 +1508,1437 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131187727</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>511543</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6697760</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131187799</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>511308</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6697583</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På gran.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131191997</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>511355</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6697418</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Riinghack äldre på tall.</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131187835</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>511382</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6697458</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Betad tallkrona.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131187780</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Svatå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>511335</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6697864</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gran.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131191949</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>511393</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6697824</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131192467</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>511370</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6697492</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Två tjäderbetade tallar,</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131187861</v>
+      </c>
+      <c r="B16" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>511287</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6697400</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131187741</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>511476</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6697750</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt på äldre tall.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131187791</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Svatå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>511301</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6697864</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131187762</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>511511</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6697866</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131191884</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>511360</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6697921</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131191374</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Svartå, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>511332</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6697755</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1841,42 +1841,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187835</v>
+        <v>131191949</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1884,13 +1879,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511382</v>
+        <v>511393</v>
       </c>
       <c r="R12" t="n">
-        <v>6697458</v>
+        <v>6697824</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1917,14 +1912,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Betad tallkrona.</t>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,18 +1933,19 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2057,37 +2058,42 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131191949</v>
+        <v>131187835</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2095,13 +2101,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511393</v>
+        <v>511382</v>
       </c>
       <c r="R14" t="n">
-        <v>6697824</v>
+        <v>6697458</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2128,19 +2134,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,19 +2150,18 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1618,7 +1618,7 @@
         <v>131187799</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1841,37 +1841,42 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131191949</v>
+        <v>131187835</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1879,13 +1884,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511393</v>
+        <v>511382</v>
       </c>
       <c r="R12" t="n">
-        <v>6697824</v>
+        <v>6697458</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1912,19 +1917,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,29 +1933,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131187780</v>
+        <v>131191949</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1986,17 +1985,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511335</v>
+        <v>511393</v>
       </c>
       <c r="R13" t="n">
-        <v>6697864</v>
+        <v>6697824</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2023,14 +2022,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gran.</t>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,65 +2050,60 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131187835</v>
+        <v>131187780</v>
       </c>
       <c r="B14" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511382</v>
+        <v>511335</v>
       </c>
       <c r="R14" t="n">
-        <v>6697458</v>
+        <v>6697864</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,7 +2140,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Betad tallkrona.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,6 +2149,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>131187741</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2499,53 +2499,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B18" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R18" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2580,12 +2575,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2604,48 +2605,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R19" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2680,18 +2686,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>131191884</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1841,42 +1841,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187835</v>
+        <v>131191949</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1884,13 +1879,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511382</v>
+        <v>511393</v>
       </c>
       <c r="R12" t="n">
-        <v>6697458</v>
+        <v>6697824</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1917,14 +1912,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Betad tallkrona.</t>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,25 +1933,26 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131191949</v>
+        <v>131187780</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1985,17 +1986,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511393</v>
+        <v>511335</v>
       </c>
       <c r="R13" t="n">
-        <v>6697824</v>
+        <v>6697864</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2022,19 +2023,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,60 +2046,65 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131187780</v>
+        <v>131187835</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511335</v>
+        <v>511382</v>
       </c>
       <c r="R14" t="n">
-        <v>6697864</v>
+        <v>6697458</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,7 +2150,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson, Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1841,37 +1841,42 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131191949</v>
+        <v>131187835</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1879,13 +1884,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511393</v>
+        <v>511382</v>
       </c>
       <c r="R12" t="n">
-        <v>6697824</v>
+        <v>6697458</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1912,19 +1917,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,26 +1933,25 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131187780</v>
+        <v>131191949</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1986,17 +1985,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511335</v>
+        <v>511393</v>
       </c>
       <c r="R13" t="n">
-        <v>6697864</v>
+        <v>6697824</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2023,14 +2022,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gran.</t>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,65 +2050,60 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131187835</v>
+        <v>131187780</v>
       </c>
       <c r="B14" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511382</v>
+        <v>511335</v>
       </c>
       <c r="R14" t="n">
-        <v>6697458</v>
+        <v>6697864</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,7 +2140,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Betad tallkrona.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,6 +2149,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2499,48 +2499,53 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R18" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2575,18 +2580,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2605,53 +2604,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B19" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R19" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2686,12 +2680,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1841,53 +1841,48 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187835</v>
+        <v>131187780</v>
       </c>
       <c r="B12" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511382</v>
+        <v>511335</v>
       </c>
       <c r="R12" t="n">
-        <v>6697458</v>
+        <v>6697864</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1924,7 +1919,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betad tallkrona.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,6 +1928,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2062,48 +2058,53 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131187780</v>
+        <v>131187835</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511335</v>
+        <v>511382</v>
       </c>
       <c r="R14" t="n">
-        <v>6697864</v>
+        <v>6697458</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,7 +2150,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2499,53 +2499,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B18" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R18" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2580,12 +2575,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2604,48 +2605,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R19" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2680,18 +2686,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -2499,48 +2499,53 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R18" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2575,18 +2580,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2605,53 +2604,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B19" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R19" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2686,12 +2680,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1618,7 +1618,7 @@
         <v>131187799</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187780</v>
+        <v>131191949</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1875,17 +1875,17 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511335</v>
+        <v>511393</v>
       </c>
       <c r="R12" t="n">
-        <v>6697864</v>
+        <v>6697824</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1912,14 +1912,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På gran.</t>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,22 +1940,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131191949</v>
+        <v>131187780</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1981,17 +1986,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511393</v>
+        <v>511335</v>
       </c>
       <c r="R13" t="n">
-        <v>6697824</v>
+        <v>6697864</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2018,19 +2023,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,12 +2046,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
         <v>131187741</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2499,53 +2499,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B18" t="n">
-        <v>57073</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R18" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2580,12 +2575,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2604,48 +2605,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R19" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2680,18 +2686,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>131191884</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson, Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -2499,48 +2499,53 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B18" t="n">
-        <v>79245</v>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R18" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2575,18 +2580,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2605,53 +2604,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B19" t="n">
-        <v>57073</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R19" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2686,12 +2680,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4568-2026 artfynd.xlsx
+++ b/artfynd/A 4568-2026 artfynd.xlsx
@@ -1841,37 +1841,42 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131191949</v>
+        <v>131187835</v>
       </c>
       <c r="B12" t="n">
-        <v>79245</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1879,13 +1884,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>511393</v>
+        <v>511382</v>
       </c>
       <c r="R12" t="n">
-        <v>6697824</v>
+        <v>6697458</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1912,19 +1917,14 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>10:33</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Betad tallkrona.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,26 +1933,25 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131187780</v>
+        <v>131191949</v>
       </c>
       <c r="B13" t="n">
         <v>79245</v>
@@ -1986,17 +1985,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>511335</v>
+        <v>511393</v>
       </c>
       <c r="R13" t="n">
-        <v>6697864</v>
+        <v>6697824</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2023,14 +2022,19 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gran.</t>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,65 +2050,60 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anna-Lena Thommson</t>
+          <t>Lars-Erik Nilsson, Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131187835</v>
+        <v>131187780</v>
       </c>
       <c r="B14" t="n">
-        <v>57073</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>511382</v>
+        <v>511335</v>
       </c>
       <c r="R14" t="n">
-        <v>6697458</v>
+        <v>6697864</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,7 +2140,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Betad tallkrona.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,6 +2149,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2499,53 +2499,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187791</v>
+        <v>131187762</v>
       </c>
       <c r="B18" t="n">
-        <v>57073</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svatå, Dlr</t>
+          <t>Svartå, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>511301</v>
+        <v>511511</v>
       </c>
       <c r="R18" t="n">
-        <v>6697864</v>
+        <v>6697866</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2580,12 +2575,18 @@
           <t>2026-02-16</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På äldre tall.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2604,48 +2605,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131187762</v>
+        <v>131187791</v>
       </c>
       <c r="B19" t="n">
-        <v>79245</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartå, Dlr</t>
+          <t>Svatå, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>511511</v>
+        <v>511301</v>
       </c>
       <c r="R19" t="n">
-        <v>6697866</v>
+        <v>6697864</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2680,18 +2686,12 @@
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På äldre tall.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
